--- a/TRACKING.xlsx
+++ b/TRACKING.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1297664-00B5-4488-B28A-039B17EE1597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A02F05-5A68-41EE-8DBA-1B2EE58F7601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Unit #</t>
   </si>
@@ -67,6 +78,9 @@
   </si>
   <si>
     <t>Ready</t>
+  </si>
+  <si>
+    <t>Put files together</t>
   </si>
 </sst>
 </file>
@@ -401,7 +415,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -440,6 +454,9 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">

--- a/TRACKING.xlsx
+++ b/TRACKING.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\xlgs-2024-analytics-2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A02F05-5A68-41EE-8DBA-1B2EE58F7601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACD824-0835-4D2E-8FAB-85AD3E8BC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Unit #</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Ready</t>
   </si>
   <si>
-    <t>Put files together</t>
+    <t>`</t>
+  </si>
+  <si>
+    <t>NEED TO PUT NOTES TOGETHER</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -424,7 +427,7 @@
     <col min="4" max="4" width="38.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -441,7 +444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -455,10 +458,10 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -471,8 +474,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -485,8 +491,14 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2</v>
       </c>
@@ -499,8 +511,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2</v>
       </c>
@@ -513,8 +528,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
@@ -529,6 +547,11 @@
       </c>
       <c r="E9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
